--- a/biology/Botanique/Giovanni_Maria_Ciassi/Giovanni_Maria_Ciassi.xlsx
+++ b/biology/Botanique/Giovanni_Maria_Ciassi/Giovanni_Maria_Ciassi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Giovanni Maria Ciassi, en latin Ciassus, est un scientifique italien, né à Trévise, en 1654 et mort vers 1679.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Giovanni Maria Ciassi a composé un ouvrage sur la nature des plantes et leur anatomie, dont la seconde édition a été publiée à Venise, 1677, in-12, sous ce titre : Meditationes de natura plantarum. Il remonte jusqu’à l’examen de la petite plante renfermée dans la graine, et il reconnaît très-bien que ce n’est pas la pulpe qui l’entoure qui lui donne naissance, mais les deux cotylédons ; qu’elle a déjà reçu un type qu’elle doit conserver en germant ; en sorte que, malgré l’obscurité de son style, on voit qu’il avait entrevu quelques phénomènes importants de la germination, qui n’ont été bien connus que dans ces derniers temps. Il y parle aussi de la circulation de la sève et de la sensibilité des végétaux. Ciassi s’est aussi occupé de mathématiques, et a fait un traité de Æquilibrio præsertim fluidorum et de levitate ignis, qui se trouve à la suite de l’ouvrage précédent.
 </t>
